--- a/deliverables/info.xlsx
+++ b/deliverables/info.xlsx
@@ -28,59 +28,67 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>File Location should be valid. Tests --
+* Invalid File Location/Name/Path
+* File Permissions to write to the file.</t>
+  </si>
+  <si>
+    <t>HTML format of the webpage. Tests --
+* Invalid format of the html.
+* Empty html page returned.</t>
+  </si>
+  <si>
+    <t>TEST CASES</t>
+  </si>
+  <si>
+    <t>ENHANCEMENTS &amp; LIMITATIONS</t>
+  </si>
+  <si>
+    <t>The scraped data is loaded completed in memory. One of the options is to use StreamReader like XMLStreamReader (but it suffers from ill-formed HTML issues) or StringReader (need to parse and build a proper structure from it.)</t>
+  </si>
+  <si>
+    <t>There might be space limitations while writing back to file due to disk space. Currently there will be error and the file will be deleted.</t>
+  </si>
+  <si>
+    <t>All the output data is in-memory and written at the end of the processing. This data can be written using StreamWriter in chunks while processing. However maintaining the actual format of the output can be an issue.</t>
+  </si>
+  <si>
+    <t>Input Parameters should be accurate. Tests --
+* There are two input parameters, a url link and an output file.</t>
+  </si>
   <si>
     <t>URI should be valid. Supported Transport protocols are http and https. The url without transport protocol is assumed to have http:// protocol. Tests --
 * Invalid URL (malformed uri exception, IO exception)
 * Empty String instead of the URL.
-* other protocols should not work.</t>
-  </si>
-  <si>
-    <t>File Location should be valid. Tests --
-* Invalid File Location/Name/Path
-* File Permissions to write to the file.</t>
-  </si>
-  <si>
-    <t>HTML format of the webpage. Tests --
-* Invalid format of the html.
-* Empty html page returned.</t>
+* other protocols are not working.</t>
   </si>
   <si>
     <t>Output File format for Tags. Tests --
-* Tags should be in correct order as per the HTML page.
-* The self closing tags should be correctly written. Eg. &lt;link /&gt;
-* Start tags should be correctly written. Eg. &lt;html&gt;
-* End tags should be correctly written. Eg. &lt;/html&gt;</t>
+* Tags are in correct order as per the HTML page.
+* The self closing tags are correctly written. Eg. &lt;link /&gt;
+* Start tags are correctly written. Eg. &lt;html&gt;
+* End tags are correctly written. Eg. &lt;/html&gt;</t>
   </si>
   <si>
     <t>Output File format for Sequences. Tests --
-* There should be more than two words in every line of the output separated by space.
-* Each word should have atleast 2 charcters in it.
-* The first character of every word should be capitalized.
-* Should not contain HTML tags.
-* Should not contain text within HTML tags.
-* Should not contain any punctuations in any of the words.</t>
-  </si>
-  <si>
-    <t>TEST CASES</t>
-  </si>
-  <si>
-    <t>ENHANCEMENTS &amp; LIMITATIONS</t>
-  </si>
-  <si>
-    <t>Single open tags are currently rewritten as self closing tags. For eg. &lt;meta&gt; without an ending tag is written as &lt;/meta&gt; in the output.
+* There are more than two words in every line of the output separated by space.
+* Each word has atleast 2 charcters in it.
+* The first character of every word is capitalized.
+* Does not contain HTML tags.
+* Does not contain text within HTML tags.
+* Does not contain any punctuations in any of the words.</t>
+  </si>
+  <si>
+    <t>Cleanup in case of error. Tests --
+* File is deleted in case there is any Exception or error.</t>
+  </si>
+  <si>
+    <t>Single open tags are rewritten as self closing tags. For eg. &lt;meta&gt; without an ending tag is written as &lt;/meta&gt; in the output.
 Currently there is no way to distinguish between these as Jsoup API the format of the HTML page after scraping. 
 Other options like  StAX or SAX parser suffers from issues of XML parsing.
 Parsing the data as String or character sequence can be some of the options for achieving this.</t>
-  </si>
-  <si>
-    <t>The scraped data is loaded completed in memory. One of the options is to use StreamReader like XMLStreamReader (but it suffers from ill-formed HTML issues) or StringReader (need to parse and build a proper structure from it.)</t>
-  </si>
-  <si>
-    <t>There might be space limitations while writing back to file due to disk space. Currently there will be error and the file will be deleted.</t>
-  </si>
-  <si>
-    <t>All the output data is in-memory and written at the end of the processing. This data can be written using StreamWriter in chunks while processing. However maintaining the actual format of the output can be an issue.</t>
   </si>
 </sst>
 </file>
@@ -407,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:C9"/>
+  <dimension ref="B3:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -420,23 +428,23 @@
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="80" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="32" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" ht="48" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="80" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="48" x14ac:dyDescent="0.2">
@@ -444,23 +452,39 @@
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="80" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="48" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="112" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="80" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="112" x14ac:dyDescent="0.2">
+      <c r="B10" s="1">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B11" s="1">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -483,7 +507,7 @@
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="112" x14ac:dyDescent="0.2">
@@ -491,7 +515,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="48" x14ac:dyDescent="0.2">
@@ -499,7 +523,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="32" x14ac:dyDescent="0.2">
@@ -507,7 +531,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="48" x14ac:dyDescent="0.2">
@@ -515,7 +539,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.2">

--- a/deliverables/info.xlsx
+++ b/deliverables/info.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -59,12 +59,6 @@
 * There are two input parameters, a url link and an output file.</t>
   </si>
   <si>
-    <t>URI should be valid. Supported Transport protocols are http and https. The url without transport protocol is assumed to have http:// protocol. Tests --
-* Invalid URL (malformed uri exception, IO exception)
-* Empty String instead of the URL.
-* other protocols are not working.</t>
-  </si>
-  <si>
     <t>Output File format for Tags. Tests --
 * Tags are in correct order as per the HTML page.
 * The self closing tags are correctly written. Eg. &lt;link /&gt;
@@ -89,6 +83,14 @@
 Currently there is no way to distinguish between these as Jsoup API the format of the HTML page after scraping. 
 Other options like  StAX or SAX parser suffers from issues of XML parsing.
 Parsing the data as String or character sequence can be some of the options for achieving this.</t>
+  </si>
+  <si>
+    <t>URI should be valid. Supported Transport protocols are http and https. The url without transport protocol is assumed to have http:// protocol. Tests --
+* Invalid URL (malformed uri exception, IO exception)
+* Empty String instead of the URL.
+* HTTPS urls are working
+* URL requiring user agent are working
+* other protocols are not working.</t>
   </si>
 </sst>
 </file>
@@ -418,7 +420,7 @@
   <dimension ref="B3:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -439,12 +441,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="80" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:3" ht="112" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="48" x14ac:dyDescent="0.2">
@@ -468,7 +470,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="112" x14ac:dyDescent="0.2">
@@ -476,7 +478,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="32" x14ac:dyDescent="0.2">
@@ -484,7 +486,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -515,7 +517,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="48" x14ac:dyDescent="0.2">
